--- a/Documentatie/agenda week 1.xlsx
+++ b/Documentatie/agenda week 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="33740" windowHeight="19680"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="38160" windowHeight="22200"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">Agenda aan : </t>
   </si>
   <si>
-    <t>Tijd: 09.00</t>
-  </si>
-  <si>
     <t>Locatie: Lokaal BN0330</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Planning (vooruitzicht)</t>
+  </si>
+  <si>
+    <t>Tijd: 10.00</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="168" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,12 +925,12 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="57"/>
       <c r="E3" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
@@ -951,7 +951,7 @@
     </row>
     <row r="5" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="72"/>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -1161,7 +1161,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1417,6 +1417,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1465,7 +1471,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1474,13 +1480,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1495,18 +1503,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>